--- a/users/informes_vendor/miquelrius/tendencias de rendimiento/Tendencias de rendimiento de ventas_ES.xlsx
+++ b/users/informes_vendor/miquelrius/tendencias de rendimiento/Tendencias de rendimiento de ventas_ES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg_4_\OneDrive\Escritorio\pruebaVisualizacion\informes_vendor\miquelrius\tendencias de rendimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D06E8-E71E-404A-9D90-DC5DEC27F665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE2234A-EA89-4F6A-BFB5-205F9CA73E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Fecha</t>
   </si>
@@ -46,6 +46,27 @@
     <t>Cambios en Conversión - Periodo anterior</t>
   </si>
   <si>
+    <t>02-ago-2020</t>
+  </si>
+  <si>
+    <t>01-ago-2020</t>
+  </si>
+  <si>
+    <t>31-jul-2020</t>
+  </si>
+  <si>
+    <t>30-jul-2020</t>
+  </si>
+  <si>
+    <t>29-jul-2020</t>
+  </si>
+  <si>
+    <t>28-jul-2020</t>
+  </si>
+  <si>
+    <t>27-jul-2020</t>
+  </si>
+  <si>
     <t>26-jul-2020</t>
   </si>
   <si>
@@ -206,24 +227,6 @@
   </si>
   <si>
     <t>03-jun-2020</t>
-  </si>
-  <si>
-    <t>02-jun-2020</t>
-  </si>
-  <si>
-    <t>01-jun-2020</t>
-  </si>
-  <si>
-    <t>31-may-2020</t>
-  </si>
-  <si>
-    <t>30-may-2020</t>
-  </si>
-  <si>
-    <t>29-may-2020</t>
-  </si>
-  <si>
-    <t>28-may-2020</t>
   </si>
 </sst>
 </file>
@@ -600,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,28 +645,28 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>1329.4799999999998</v>
+        <v>2007.8</v>
       </c>
       <c r="C2" s="4">
-        <v>8.064083493867201E-2</v>
+        <v>0.75318494974808625</v>
       </c>
       <c r="D2" s="5">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="E2" s="4">
-        <v>0.2303370786516854</v>
+        <v>0.7823529411764707</v>
       </c>
       <c r="F2" s="3">
-        <v>6.0706849315068485</v>
+        <v>6.6264026402640264</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.12167091954756337</v>
+        <v>-1.6364879679291566E-2</v>
       </c>
       <c r="H2" s="4">
-        <v>0.14750468404019768</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.6698827371233405E-2</v>
+        <v>0.32252964426877462</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-6.5599502378765551E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -671,28 +674,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>1230.2699999999998</v>
+        <v>1145.2299999999996</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.28496370388882786</v>
+        <v>-0.45343171177534636</v>
       </c>
       <c r="D3" s="5">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.32319391634980987</v>
+        <v>-0.46202531645569622</v>
       </c>
       <c r="F3" s="3">
-        <v>6.9116292134831445</v>
+        <v>6.736647058823527</v>
       </c>
       <c r="G3" s="4">
-        <v>5.6486212793473323E-2</v>
+        <v>1.5973994582297424E-2</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.20241814970792016</v>
+        <v>-0.15647921760391204</v>
       </c>
       <c r="I3" s="6">
-        <v>-4.0925719706763175E-2</v>
+        <v>-8.0016458647647837E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -700,28 +703,28 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>1720.5700000000004</v>
+        <v>2095.3100000000009</v>
       </c>
       <c r="C4" s="6">
-        <v>-0.19589387446079576</v>
+        <v>-0.11229595360049484</v>
       </c>
       <c r="D4" s="5">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="E4" s="6">
-        <v>-0.26944444444444449</v>
+        <v>-0.13424657534246576</v>
       </c>
       <c r="F4" s="3">
-        <v>6.5420912547528536</v>
+        <v>6.6307278481012686</v>
       </c>
       <c r="G4" s="4">
-        <v>0.10067758628940492</v>
+        <v>2.535435739183356E-2</v>
       </c>
       <c r="H4" s="6">
-        <v>-0.17347855378396582</v>
-      </c>
-      <c r="I4" s="6">
-        <v>-0.12984991372092292</v>
+        <v>-0.13155100858990443</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9.2869939161463785E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -729,28 +732,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>2139.7299999999987</v>
+        <v>2360.3700000000008</v>
       </c>
       <c r="C5" s="6">
-        <v>-3.8794478210674388E-2</v>
+        <v>-0.12644890527157182</v>
       </c>
       <c r="D5" s="5">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E5" s="4">
-        <v>2.564102564102555E-2</v>
+        <v>2.8169014084507005E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>5.9436944444444411</v>
+        <v>6.4667671232876733</v>
       </c>
       <c r="G5" s="6">
-        <v>-6.2824616255407473E-2</v>
+        <v>-0.15038181197646028</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.12566267425878652</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.15031539790226578</v>
+        <v>-5.9483833829031552E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-0.11111468576964188</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -758,28 +761,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>2226.0899999999988</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-5.0485188423724514E-2</v>
+        <v>2702.0399999999986</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.10874756875199987</v>
       </c>
       <c r="D6" s="5">
-        <v>351</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-0.12468827930174564</v>
+        <v>355</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.6657223796034994E-3</v>
       </c>
       <c r="F6" s="3">
-        <v>6.3421367521367484</v>
+        <v>7.6113802816901366</v>
       </c>
       <c r="G6" s="4">
-        <v>8.4773331743835958E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6.7714884696016719E-2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-8.9655104138651284E-2</v>
+        <v>0.10250110357593221</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-4.3410425844346519E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.29558621145228936</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -787,28 +790,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>2344.4499999999998</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-7.1486564090378235E-2</v>
+        <v>2437.02</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.25670762836412742</v>
       </c>
       <c r="D7" s="5">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="E7" s="4">
-        <v>6.3660477453580944E-2</v>
+        <v>0.21305841924398616</v>
       </c>
       <c r="F7" s="3">
-        <v>5.8465087281795505</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-0.127058440553797</v>
+        <v>6.9037393767705382</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.5982775790257993E-2</v>
       </c>
       <c r="H7" s="4">
-        <v>1.4030612244897878E-2</v>
+        <v>2.9673029673029649E-2</v>
       </c>
       <c r="I7" s="6">
-        <v>-8.5557461406517987E-2</v>
+        <v>-0.11578944484625332</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -816,28 +819,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>2524.9500000000003</v>
+        <v>1939.2100000000003</v>
       </c>
       <c r="C8" s="4">
-        <v>1.202830147527111</v>
+        <v>0.4586229202394918</v>
       </c>
       <c r="D8" s="5">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4">
-        <v>0.98421052631578942</v>
+        <v>0.32876712328767121</v>
       </c>
       <c r="F8" s="3">
-        <v>6.6974801061007962</v>
+        <v>6.6639518900343653</v>
       </c>
       <c r="G8" s="4">
-        <v>0.11017964994735042</v>
+        <v>9.7726527602916669E-2</v>
       </c>
       <c r="H8" s="4">
-        <v>0.44338754219085613</v>
-      </c>
-      <c r="I8" s="4">
-        <v>6.5420035938903442E-3</v>
+        <v>0.57072881104349116</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-4.7871469746469719E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -845,28 +848,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>1146.2299999999998</v>
+        <v>1329.4800000000005</v>
       </c>
       <c r="C9" s="4">
-        <v>7.4829102707162809E-2</v>
+        <v>8.064083493867201E-2</v>
       </c>
       <c r="D9" s="5">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="E9" s="4">
-        <v>0.13772455089820368</v>
+        <v>0.2303370786516854</v>
       </c>
       <c r="F9" s="3">
-        <v>6.0327894736842094</v>
+        <v>6.0706849315068512</v>
       </c>
       <c r="G9" s="6">
-        <v>-5.5281788673177894E-2</v>
+        <v>-0.12167091954756348</v>
       </c>
       <c r="H9" s="4">
-        <v>0.46570721834944906</v>
-      </c>
-      <c r="I9" s="6">
-        <v>-2.2702205120124774E-2</v>
+        <v>0.14750468404019768</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.6698827371233405E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -874,28 +877,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>1066.43</v>
+        <v>1230.2700000000004</v>
       </c>
       <c r="C10" s="6">
-        <v>-0.32026464570492519</v>
+        <v>-0.2849637038888273</v>
       </c>
       <c r="D10" s="5">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E10" s="6">
-        <v>-0.31836734693877555</v>
+        <v>-0.32319391634980987</v>
       </c>
       <c r="F10" s="3">
-        <v>6.3858083832335337</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-2.7834622617164406E-3</v>
+        <v>6.911629213483149</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.6486212793474211E-2</v>
       </c>
       <c r="H10" s="6">
-        <v>-0.2734847247181833</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5.659836880100988E-2</v>
+        <v>-0.20241814970792016</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-4.0925719706763175E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -903,28 +906,28 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>1568.89</v>
+        <v>1720.5700000000002</v>
       </c>
       <c r="C11" s="6">
-        <v>-0.25380850689407508</v>
+        <v>-0.19589387446079656</v>
       </c>
       <c r="D11" s="5">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E11" s="6">
-        <v>-0.25981873111782472</v>
+        <v>-0.26944444444444449</v>
       </c>
       <c r="F11" s="3">
-        <v>6.4036326530612246</v>
+        <v>6.5420912547528527</v>
       </c>
       <c r="G11" s="4">
-        <v>8.1199355839229881E-3</v>
+        <v>0.10067758628940403</v>
       </c>
       <c r="H11" s="6">
-        <v>-0.17849953026439402</v>
-      </c>
-      <c r="I11" s="4">
-        <v>8.2529987201522173E-2</v>
+        <v>-0.17347855378396582</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-0.12984991372092292</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -932,28 +935,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>2102.5299999999997</v>
+        <v>2139.7300000000005</v>
       </c>
       <c r="C12" s="6">
-        <v>-0.10211219487196976</v>
+        <v>-3.8794478210674166E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>331</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-0.12664907651715041</v>
+        <v>360</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.564102564102555E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>6.3520543806646517</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2.8095100131490858E-2</v>
+        <v>5.9436944444444455</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-6.2824616255407362E-2</v>
       </c>
       <c r="H12" s="6">
-        <v>-0.1383138660807216</v>
-      </c>
-      <c r="I12" s="6">
-        <v>-0.13835708363132282</v>
+        <v>-0.12566267425878652</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.15031539790226578</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -961,28 +964,28 @@
         <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>2341.639999999999</v>
+        <v>2226.0900000000006</v>
       </c>
       <c r="C13" s="6">
-        <v>-0.16291074441616404</v>
+        <v>-5.0485188423723952E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="E13" s="6">
-        <v>-0.13073394495412849</v>
+        <v>-0.12468827930174564</v>
       </c>
       <c r="F13" s="3">
-        <v>6.1784696569920818</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-3.7016054262394626E-2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>-5.4455986878075402E-2</v>
+        <v>6.3421367521367538</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8.4773331743836847E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.7714884696016719E-2</v>
       </c>
       <c r="I13" s="6">
-        <v>-7.2064511035396905E-2</v>
+        <v>-8.9655104138651284E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -990,28 +993,28 @@
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>2797.3599999999997</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.59500065570779337</v>
+        <v>2344.4500000000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-7.1486564090378346E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="E14" s="4">
-        <v>0.50344827586206886</v>
+        <v>6.3660477453580944E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>6.4159633027522931</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6.0894931548761688E-2</v>
+        <v>5.8465087281795514</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-0.12705844055379723</v>
       </c>
       <c r="H14" s="4">
-        <v>3.7553891536192374E-2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>7.2040184432041077E-2</v>
+        <v>1.4030612244897878E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>-8.5557461406517987E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1019,28 +1022,28 @@
         <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>1753.8300000000002</v>
+        <v>2524.9500000000012</v>
       </c>
       <c r="C15" s="4">
-        <v>9.0602127937418064E-2</v>
+        <v>1.2028301475271119</v>
       </c>
       <c r="D15" s="5">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="E15" s="4">
-        <v>0.16465863453815266</v>
+        <v>0.98421052631578942</v>
       </c>
       <c r="F15" s="3">
-        <v>6.0476896551724142</v>
-      </c>
-      <c r="G15" s="6">
-        <v>-6.3586448770975412E-2</v>
+        <v>6.6974801061007989</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.11017964994735084</v>
       </c>
       <c r="H15" s="4">
-        <v>0.48259041211101761</v>
+        <v>0.44338754219085613</v>
       </c>
       <c r="I15" s="4">
-        <v>0.1312160331962704</v>
+        <v>6.5420035938903442E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1048,28 +1051,28 @@
         <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>1608.1299999999999</v>
+        <v>1146.2299999999998</v>
       </c>
       <c r="C16" s="4">
-        <v>0.56014009080678284</v>
+        <v>7.4829102707162809E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="E16" s="4">
-        <v>0.46470588235294108</v>
+        <v>0.13772455089820368</v>
       </c>
       <c r="F16" s="3">
-        <v>6.4583534136546179</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6.5155885289771343E-2</v>
+        <v>6.0327894736842094</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-5.5281788673177894E-2</v>
       </c>
       <c r="H16" s="4">
-        <v>0.32641677822400711</v>
+        <v>0.46570721834944906</v>
       </c>
       <c r="I16" s="6">
-        <v>-0.18387320665975326</v>
+        <v>-2.2702205120124774E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1077,28 +1080,28 @@
         <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>1030.7600000000002</v>
+        <v>1066.43</v>
       </c>
       <c r="C17" s="6">
-        <v>-0.38660937974208986</v>
+        <v>-0.32026464570492541</v>
       </c>
       <c r="D17" s="5">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E17" s="6">
-        <v>-0.36567164179104472</v>
+        <v>-0.31836734693877555</v>
       </c>
       <c r="F17" s="3">
-        <v>6.0632941176470601</v>
+        <v>6.3858083832335337</v>
       </c>
       <c r="G17" s="6">
-        <v>-3.300772806400043E-2</v>
+        <v>-2.7834622617168847E-3</v>
       </c>
       <c r="H17" s="6">
-        <v>-0.27779568159845314</v>
+        <v>-0.2734847247181833</v>
       </c>
       <c r="I17" s="4">
-        <v>0.10130440250922179</v>
+        <v>5.659836880100988E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1106,28 +1109,28 @@
         <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>1680.4300000000005</v>
+        <v>1568.8900000000008</v>
       </c>
       <c r="C18" s="6">
-        <v>-0.4065293321984933</v>
+        <v>-0.25380850689407497</v>
       </c>
       <c r="D18" s="5">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E18" s="6">
-        <v>-0.37529137529137524</v>
+        <v>-0.25981873111782472</v>
       </c>
       <c r="F18" s="3">
-        <v>6.2702611940298523</v>
-      </c>
-      <c r="G18" s="6">
-        <v>-5.0004042959528421E-2</v>
+        <v>6.4036326530612273</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8.1199355839232101E-3</v>
       </c>
       <c r="H18" s="6">
-        <v>-0.15679347826086953</v>
-      </c>
-      <c r="I18" s="6">
-        <v>-0.16304955826347189</v>
+        <v>-0.17849953026439402</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8.2529987201522173E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1135,28 +1138,28 @@
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>2831.53</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.30273933527181662</v>
+        <v>2102.5300000000002</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-0.10211219487196942</v>
       </c>
       <c r="D19" s="5">
-        <v>429</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.15322580645161299</v>
+        <v>331</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-0.12664907651715041</v>
       </c>
       <c r="F19" s="3">
-        <v>6.6003030303030306</v>
+        <v>6.3520543806646534</v>
       </c>
       <c r="G19" s="4">
-        <v>0.1296480949210157</v>
+        <v>2.8095100131491302E-2</v>
       </c>
       <c r="H19" s="6">
-        <v>-0.11623439000960613</v>
-      </c>
-      <c r="I19" s="4">
-        <v>8.425190146441143E-2</v>
+        <v>-0.1383138660807216</v>
+      </c>
+      <c r="I19" s="6">
+        <v>-0.13835708363132282</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1164,28 +1167,28 @@
         <v>26</v>
       </c>
       <c r="B20" s="3">
-        <v>2173.5200000000009</v>
+        <v>2341.6399999999985</v>
       </c>
       <c r="C20" s="6">
-        <v>-0.18106771059006951</v>
+        <v>-0.16291074441616449</v>
       </c>
       <c r="D20" s="5">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E20" s="6">
-        <v>-6.5326633165829096E-2</v>
+        <v>-0.13073394495412849</v>
       </c>
       <c r="F20" s="3">
-        <v>5.8427956989247338</v>
+        <v>6.1784696569920801</v>
       </c>
       <c r="G20" s="6">
-        <v>-0.12383050756679481</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4.2824943651389891E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2.0198927313480608E-2</v>
+        <v>-3.7016054262395182E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>-5.4455986878075402E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>-7.2064511035396905E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1193,28 +1196,28 @@
         <v>27</v>
       </c>
       <c r="B21" s="3">
-        <v>2654.0899999999983</v>
+        <v>2797.3600000000006</v>
       </c>
       <c r="C21" s="4">
-        <v>0.1137786618323422</v>
+        <v>0.59500065570779337</v>
       </c>
       <c r="D21" s="5">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="E21" s="4">
-        <v>1.5306122448979664E-2</v>
+        <v>0.50344827586206886</v>
       </c>
       <c r="F21" s="3">
-        <v>6.6685678391959753</v>
+        <v>6.4159633027522949</v>
       </c>
       <c r="G21" s="4">
-        <v>9.6988028739392274E-2</v>
-      </c>
-      <c r="H21" s="6">
-        <v>-2.0363101079489687E-2</v>
+        <v>6.0894931548761688E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3.7553891536192374E-2</v>
       </c>
       <c r="I21" s="4">
-        <v>2.0786376158276942E-2</v>
+        <v>7.2040184432041077E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1222,28 +1225,28 @@
         <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>2382.96</v>
+        <v>1753.8300000000008</v>
       </c>
       <c r="C22" s="4">
-        <v>0.70947724843432813</v>
+        <v>9.0602127937418508E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>392</v>
+        <v>290</v>
       </c>
       <c r="E22" s="4">
-        <v>0.60655737704918034</v>
+        <v>0.16465863453815266</v>
       </c>
       <c r="F22" s="3">
-        <v>6.0789795918367346</v>
-      </c>
-      <c r="G22" s="4">
-        <v>6.406236892340833E-2</v>
+        <v>6.0476896551724169</v>
+      </c>
+      <c r="G22" s="6">
+        <v>-6.3586448770975079E-2</v>
       </c>
       <c r="H22" s="4">
-        <v>0.40068728522336761</v>
-      </c>
-      <c r="I22" s="6">
-        <v>-4.4547646756241122E-2</v>
+        <v>0.48259041211101761</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.1312160331962704</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1251,28 +1254,28 @@
         <v>29</v>
       </c>
       <c r="B23" s="3">
-        <v>1393.9699999999998</v>
+        <v>1608.1299999999999</v>
       </c>
       <c r="C23" s="4">
-        <v>2.6797486722795583E-2</v>
+        <v>0.56014009080678262</v>
       </c>
       <c r="D23" s="5">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E23" s="4">
-        <v>0.13488372093023249</v>
+        <v>0.46470588235294108</v>
       </c>
       <c r="F23" s="3">
-        <v>5.7129918032786877</v>
-      </c>
-      <c r="G23" s="6">
-        <v>-9.5239919486061253E-2</v>
+        <v>6.4583534136546179</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6.515588528977112E-2</v>
       </c>
       <c r="H23" s="4">
-        <v>6.9066862601028678E-2</v>
+        <v>0.32641677822400711</v>
       </c>
       <c r="I23" s="6">
-        <v>-1.5027545955380583E-3</v>
+        <v>-0.18387320665975326</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1280,28 +1283,28 @@
         <v>30</v>
       </c>
       <c r="B24" s="3">
-        <v>1357.5899999999997</v>
+        <v>1030.7600000000004</v>
       </c>
       <c r="C24" s="6">
-        <v>-0.38361407491486943</v>
+        <v>-0.38660937974208953</v>
       </c>
       <c r="D24" s="5">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="E24" s="6">
-        <v>-0.38395415472779371</v>
+        <v>-0.36567164179104472</v>
       </c>
       <c r="F24" s="3">
-        <v>6.3143720930232545</v>
-      </c>
-      <c r="G24" s="4">
-        <v>5.5203653353741444E-4</v>
+        <v>6.0632941176470618</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-3.3007728063999875E-2</v>
       </c>
       <c r="H24" s="6">
-        <v>-0.23817520291071925</v>
+        <v>-0.27779568159845314</v>
       </c>
       <c r="I24" s="4">
-        <v>3.0481984796775219E-2</v>
+        <v>0.10130440250922179</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1309,28 +1312,28 @@
         <v>31</v>
       </c>
       <c r="B25" s="3">
-        <v>2202.4999999999995</v>
+        <v>1680.4299999999998</v>
       </c>
       <c r="C25" s="6">
-        <v>-8.6683198288231122E-2</v>
+        <v>-0.4065293321984933</v>
       </c>
       <c r="D25" s="5">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="E25" s="6">
-        <v>-0.17102137767220904</v>
+        <v>-0.37529137529137524</v>
       </c>
       <c r="F25" s="3">
-        <v>6.3108882521489962</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.10173745994456951</v>
+        <v>6.2702611940298505</v>
+      </c>
+      <c r="G25" s="6">
+        <v>-5.0004042959528421E-2</v>
       </c>
       <c r="H25" s="6">
-        <v>-0.10214851111948742</v>
+        <v>-0.15679347826086953</v>
       </c>
       <c r="I25" s="6">
-        <v>-7.1376230822074671E-2</v>
+        <v>-0.16304955826347189</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1338,28 +1341,28 @@
         <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>2411.5400000000004</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-1.5922891094280245E-2</v>
+        <v>2831.5299999999993</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.30273933527181662</v>
       </c>
       <c r="D26" s="5">
-        <v>421</v>
-      </c>
-      <c r="E26" s="6">
-        <v>-4.7281323877068626E-3</v>
+        <v>429</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.15322580645161299</v>
       </c>
       <c r="F26" s="3">
-        <v>5.7281235154394308</v>
-      </c>
-      <c r="G26" s="6">
-        <v>-1.1247940458148697E-2</v>
+        <v>6.6003030303030288</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.12964809492101592</v>
       </c>
       <c r="H26" s="6">
-        <v>-9.7721346786078703E-2</v>
-      </c>
-      <c r="I26" s="6">
-        <v>-5.5979094185132465E-2</v>
+        <v>-0.11623439000960613</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8.425190146441143E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1367,28 +1370,28 @@
         <v>33</v>
       </c>
       <c r="B27" s="3">
-        <v>2450.56</v>
-      </c>
-      <c r="C27" s="4">
-        <v>6.0972494620583628E-2</v>
+        <v>2173.5200000000004</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-0.18106771059007021</v>
       </c>
       <c r="D27" s="5">
-        <v>423</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.1015625</v>
+        <v>372</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-6.5326633165829096E-2</v>
       </c>
       <c r="F27" s="3">
-        <v>5.7932860520094565</v>
+        <v>5.8427956989247321</v>
       </c>
       <c r="G27" s="6">
-        <v>-3.6847664457909879E-2</v>
+        <v>-0.12383050756679548</v>
       </c>
       <c r="H27" s="4">
-        <v>2.7489807804309763E-2</v>
+        <v>4.2824943651389891E-2</v>
       </c>
       <c r="I27" s="4">
-        <v>2.0661503830035066E-3</v>
+        <v>2.0198927313480608E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1396,28 +1399,28 @@
         <v>34</v>
       </c>
       <c r="B28" s="3">
-        <v>2309.7299999999996</v>
+        <v>2654.0899999999997</v>
       </c>
       <c r="C28" s="4">
-        <v>0.17138147885180999</v>
+        <v>0.11377866183234309</v>
       </c>
       <c r="D28" s="5">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E28" s="4">
-        <v>0.21518987341772156</v>
+        <v>1.5306122448979664E-2</v>
       </c>
       <c r="F28" s="3">
-        <v>6.0149218749999989</v>
-      </c>
-      <c r="G28" s="6">
-        <v>-3.6050658028198068E-2</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.11450084382708026</v>
+        <v>6.6685678391959788</v>
+      </c>
+      <c r="G28" s="4">
+        <v>9.6988028739393162E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>-2.0363101079489687E-2</v>
       </c>
       <c r="I28" s="4">
-        <v>0.19725930397438105</v>
+        <v>2.0786376158276942E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1425,28 +1428,28 @@
         <v>35</v>
       </c>
       <c r="B29" s="3">
-        <v>1971.8000000000004</v>
+        <v>2382.9599999999991</v>
       </c>
       <c r="C29" s="4">
-        <v>0.78582426141612505</v>
+        <v>0.70947724843432747</v>
       </c>
       <c r="D29" s="5">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="E29" s="4">
-        <v>0.71739130434782628</v>
+        <v>0.60655737704918034</v>
       </c>
       <c r="F29" s="3">
-        <v>6.2398734177215207</v>
+        <v>6.0789795918367329</v>
       </c>
       <c r="G29" s="4">
-        <v>3.9847038292933679E-2</v>
+        <v>6.4062368923407886E-2</v>
       </c>
       <c r="H29" s="4">
-        <v>0.66120336424412329</v>
+        <v>0.40068728522336761</v>
       </c>
       <c r="I29" s="6">
-        <v>-4.7778813579777424E-3</v>
+        <v>-4.4547646756241122E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1454,28 +1457,28 @@
         <v>36</v>
       </c>
       <c r="B30" s="3">
-        <v>1104.1400000000001</v>
+        <v>1393.9699999999998</v>
       </c>
       <c r="C30" s="4">
-        <v>7.421244138306804E-2</v>
+        <v>2.6797486722795361E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="E30" s="4">
-        <v>0.28671328671328666</v>
+        <v>0.13488372093023249</v>
       </c>
       <c r="F30" s="3">
-        <v>6.0007608695652177</v>
+        <v>5.7129918032786877</v>
       </c>
       <c r="G30" s="6">
-        <v>-0.16515011349033315</v>
+        <v>-9.5239919486061475E-2</v>
       </c>
       <c r="H30" s="4">
-        <v>9.9336178283546683E-2</v>
+        <v>6.9066862601028678E-2</v>
       </c>
       <c r="I30" s="6">
-        <v>-4.2231053876514268E-2</v>
+        <v>-1.5027545955380583E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1483,28 +1486,28 @@
         <v>37</v>
       </c>
       <c r="B31" s="3">
-        <v>1027.8599999999999</v>
+        <v>1357.5900000000001</v>
       </c>
       <c r="C31" s="6">
-        <v>-0.45164422440835672</v>
+        <v>-0.3836140749148696</v>
       </c>
       <c r="D31" s="5">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="E31" s="6">
-        <v>-0.54313099041533541</v>
+        <v>-0.38395415472779371</v>
       </c>
       <c r="F31" s="3">
-        <v>7.1878321678321671</v>
+        <v>6.3143720930232563</v>
       </c>
       <c r="G31" s="4">
-        <v>0.20024725706422619</v>
+        <v>5.520365335371924E-4</v>
       </c>
       <c r="H31" s="6">
-        <v>-0.30327056491575821</v>
-      </c>
-      <c r="I31" s="6">
-        <v>-3.4635497081648037E-2</v>
+        <v>-0.23817520291071925</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3.0481984796775219E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1512,28 +1515,28 @@
         <v>38</v>
       </c>
       <c r="B32" s="3">
-        <v>1874.44</v>
+        <v>2202.5000000000005</v>
       </c>
       <c r="C32" s="6">
-        <v>-2.4389736116171457E-2</v>
+        <v>-8.6683198288230678E-2</v>
       </c>
       <c r="D32" s="5">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="E32" s="6">
-        <v>-4.2813455657492394E-2</v>
+        <v>-0.17102137767220904</v>
       </c>
       <c r="F32" s="3">
-        <v>5.9886261980830673</v>
+        <v>6.3108882521489988</v>
       </c>
       <c r="G32" s="4">
-        <v>1.924778367415958E-2</v>
+        <v>0.10173745994456995</v>
       </c>
       <c r="H32" s="6">
-        <v>-0.19558862609619987</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0.18817603024030879</v>
+        <v>-0.10214851111948742</v>
+      </c>
+      <c r="I32" s="6">
+        <v>-7.1376230822074671E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1541,28 +1544,28 @@
         <v>39</v>
       </c>
       <c r="B33" s="3">
-        <v>1921.3000000000002</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.36604406777250786</v>
+        <v>2411.5400000000004</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-1.5922891094280134E-2</v>
       </c>
       <c r="D33" s="5">
-        <v>327</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.40948275862068972</v>
+        <v>421</v>
+      </c>
+      <c r="E33" s="6">
+        <v>-4.7281323877068626E-3</v>
       </c>
       <c r="F33" s="3">
-        <v>5.8755351681957189</v>
+        <v>5.7281235154394308</v>
       </c>
       <c r="G33" s="6">
-        <v>-3.0818887696569375E-2</v>
-      </c>
-      <c r="H33" s="4">
-        <v>7.0859419464997186E-2</v>
+        <v>-1.1247940458148364E-2</v>
+      </c>
+      <c r="H33" s="6">
+        <v>-9.7721346786078703E-2</v>
       </c>
       <c r="I33" s="6">
-        <v>-8.8597794792732998E-3</v>
+        <v>-5.5979094185132465E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1570,28 +1573,28 @@
         <v>40</v>
       </c>
       <c r="B34" s="3">
-        <v>1406.4700000000007</v>
-      </c>
-      <c r="C34" s="6">
-        <v>-0.31811151890080958</v>
+        <v>2450.5599999999995</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.0972494620582962E-2</v>
       </c>
       <c r="D34" s="5">
-        <v>232</v>
-      </c>
-      <c r="E34" s="6">
-        <v>-0.31360946745562135</v>
+        <v>423</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.1015625</v>
       </c>
       <c r="F34" s="3">
-        <v>6.0623706896551752</v>
+        <v>5.7932860520094547</v>
       </c>
       <c r="G34" s="6">
-        <v>-6.5590232261794057E-3</v>
+        <v>-3.6847664457910656E-2</v>
       </c>
       <c r="H34" s="4">
-        <v>0.14462540716612371</v>
-      </c>
-      <c r="I34" s="6">
-        <v>-7.2794754207036072E-2</v>
+        <v>2.7489807804309763E-2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2.0661503830035066E-3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1599,28 +1602,28 @@
         <v>41</v>
       </c>
       <c r="B35" s="3">
-        <v>2062.6099999999992</v>
+        <v>2309.7300000000005</v>
       </c>
       <c r="C35" s="4">
-        <v>3.4802632899199049E-2</v>
+        <v>0.17138147885181088</v>
       </c>
       <c r="D35" s="5">
-        <v>338</v>
-      </c>
-      <c r="E35" s="6">
-        <v>-6.1111111111111116E-2</v>
+        <v>384</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.21518987341772156</v>
       </c>
       <c r="F35" s="3">
-        <v>6.1023964497041394</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0.10215665042518228</v>
-      </c>
-      <c r="H35" s="6">
-        <v>-0.17683335567770475</v>
-      </c>
-      <c r="I35" s="6">
-        <v>-9.1495011339984847E-2</v>
+        <v>6.0149218750000015</v>
+      </c>
+      <c r="G35" s="6">
+        <v>-3.6050658028197291E-2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.11450084382708026</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.19725930397438105</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1628,28 +1631,28 @@
         <v>42</v>
       </c>
       <c r="B36" s="3">
-        <v>1993.2399999999998</v>
+        <v>1971.8</v>
       </c>
       <c r="C36" s="4">
-        <v>1.3617147325766013</v>
+        <v>0.78582426141612483</v>
       </c>
       <c r="D36" s="5">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="E36" s="4">
-        <v>1.1818181818181817</v>
+        <v>0.71739130434782628</v>
       </c>
       <c r="F36" s="3">
-        <v>5.5367777777777771</v>
+        <v>6.2398734177215189</v>
       </c>
       <c r="G36" s="4">
-        <v>8.2452585764275485E-2</v>
+        <v>3.9847038292933457E-2</v>
       </c>
       <c r="H36" s="4">
-        <v>0.49628886659979932</v>
+        <v>0.66120336424412329</v>
       </c>
       <c r="I36" s="6">
-        <v>-3.2183682971753225E-2</v>
+        <v>-4.7778813579777424E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1657,28 +1660,28 @@
         <v>43</v>
       </c>
       <c r="B37" s="3">
-        <v>843.98</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-0.33304357446539501</v>
+        <v>1104.1400000000001</v>
+      </c>
+      <c r="C37" s="4">
+        <v>7.421244138306804E-2</v>
       </c>
       <c r="D37" s="5">
-        <v>165</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-0.25339366515837103</v>
+        <v>184</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.28671328671328666</v>
       </c>
       <c r="F37" s="3">
-        <v>5.115030303030303</v>
+        <v>6.0007608695652177</v>
       </c>
       <c r="G37" s="6">
-        <v>-0.10668260579910493</v>
+        <v>-0.16515011349033315</v>
       </c>
       <c r="H37" s="4">
-        <v>9.033245844269476E-2</v>
-      </c>
-      <c r="I37" s="4">
-        <v>5.7576557423466568E-2</v>
+        <v>9.9336178283546683E-2</v>
+      </c>
+      <c r="I37" s="6">
+        <v>-4.2231053876514268E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1686,28 +1689,28 @@
         <v>44</v>
       </c>
       <c r="B38" s="3">
-        <v>1265.4200000000003</v>
+        <v>1027.8599999999999</v>
       </c>
       <c r="C38" s="6">
-        <v>-0.34558298770207763</v>
+        <v>-0.45164422440835672</v>
       </c>
       <c r="D38" s="5">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="E38" s="6">
-        <v>-0.31152647975077885</v>
+        <v>-0.54313099041533541</v>
       </c>
       <c r="F38" s="3">
-        <v>5.725882352941178</v>
-      </c>
-      <c r="G38" s="6">
-        <v>-4.9466692544646647E-2</v>
+        <v>7.1878321678321671</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.20024725706422619</v>
       </c>
       <c r="H38" s="6">
-        <v>-0.27623872091182522</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.3225430154564011E-2</v>
+        <v>-0.30327056491575821</v>
+      </c>
+      <c r="I38" s="6">
+        <v>-3.4635497081648037E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1715,28 +1718,28 @@
         <v>45</v>
       </c>
       <c r="B39" s="3">
-        <v>1933.6599999999996</v>
+        <v>1874.44</v>
       </c>
       <c r="C39" s="6">
-        <v>-0.22045555331586406</v>
+        <v>-2.4389736116171346E-2</v>
       </c>
       <c r="D39" s="5">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E39" s="6">
-        <v>-0.20740740740740737</v>
+        <v>-4.2813455657492394E-2</v>
       </c>
       <c r="F39" s="3">
-        <v>6.0238629283489082</v>
-      </c>
-      <c r="G39" s="6">
-        <v>-1.6462613996650943E-2</v>
+        <v>5.9886261980830673</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1.924778367415958E-2</v>
       </c>
       <c r="H39" s="6">
-        <v>-0.17500326498628704</v>
-      </c>
-      <c r="I39" s="6">
-        <v>-3.5039350232546229E-2</v>
+        <v>-0.19558862609619987</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.18817603024030879</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1744,28 +1747,28 @@
         <v>46</v>
       </c>
       <c r="B40" s="3">
-        <v>2480.5000000000005</v>
-      </c>
-      <c r="C40" s="6">
-        <v>-5.6768791424410159E-2</v>
+        <v>1921.3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.36604406777250809</v>
       </c>
       <c r="D40" s="5">
-        <v>405</v>
-      </c>
-      <c r="E40" s="6">
-        <v>-0.10596026490066224</v>
+        <v>327</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.40948275862068972</v>
       </c>
       <c r="F40" s="3">
-        <v>6.1246913580246929</v>
-      </c>
-      <c r="G40" s="4">
-        <v>5.5021574036400622E-2</v>
-      </c>
-      <c r="H40" s="6">
-        <v>-0.16544959128065392</v>
-      </c>
-      <c r="I40" s="4">
-        <v>4.8834934746574854E-2</v>
+        <v>5.8755351681957189</v>
+      </c>
+      <c r="G40" s="6">
+        <v>-3.0818887696569153E-2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>7.0859419464997186E-2</v>
+      </c>
+      <c r="I40" s="6">
+        <v>-8.8597794792732998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1773,28 +1776,28 @@
         <v>47</v>
       </c>
       <c r="B41" s="3">
-        <v>2629.79</v>
+        <v>1406.4700000000007</v>
       </c>
       <c r="C41" s="6">
-        <v>-4.3222161180823226E-2</v>
+        <v>-0.31811151890080969</v>
       </c>
       <c r="D41" s="5">
-        <v>453</v>
+        <v>232</v>
       </c>
       <c r="E41" s="6">
-        <v>-3.8216560509554132E-2</v>
+        <v>-0.31360946745562135</v>
       </c>
       <c r="F41" s="3">
-        <v>5.8052759381898458</v>
+        <v>6.0623706896551752</v>
       </c>
       <c r="G41" s="6">
-        <v>-5.204498711186889E-3</v>
-      </c>
-      <c r="H41" s="6">
-        <v>-5.9167350287120613E-2</v>
+        <v>-6.5590232261797388E-3</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.14462540716612371</v>
       </c>
       <c r="I41" s="6">
-        <v>-8.286643902551194E-2</v>
+        <v>-7.2794754207036072E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1802,28 +1805,28 @@
         <v>48</v>
       </c>
       <c r="B42" s="3">
-        <v>2748.5899999999988</v>
+        <v>2062.6099999999997</v>
       </c>
       <c r="C42" s="4">
-        <v>8.6768624908070802E-2</v>
+        <v>3.4802632899199049E-2</v>
       </c>
       <c r="D42" s="5">
-        <v>471</v>
-      </c>
-      <c r="E42" s="4">
-        <v>7.5342465753424737E-2</v>
+        <v>338</v>
+      </c>
+      <c r="E42" s="6">
+        <v>-6.1111111111111116E-2</v>
       </c>
       <c r="F42" s="3">
-        <v>5.8356475583864089</v>
+        <v>6.1023964497041412</v>
       </c>
       <c r="G42" s="4">
-        <v>1.0625600232982979E-2</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1.7635396013774285E-2</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0.17622647724165355</v>
+        <v>0.10215665042518252</v>
+      </c>
+      <c r="H42" s="6">
+        <v>-0.17683335567770475</v>
+      </c>
+      <c r="I42" s="6">
+        <v>-9.1495011339984847E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1831,28 +1834,28 @@
         <v>49</v>
       </c>
       <c r="B43" s="3">
-        <v>2529.1400000000003</v>
+        <v>1993.2400000000002</v>
       </c>
       <c r="C43" s="4">
-        <v>0.86755768875761508</v>
+        <v>1.3617147325766019</v>
       </c>
       <c r="D43" s="5">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="E43" s="4">
-        <v>0.77327935222672073</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="F43" s="3">
-        <v>5.7742922374429231</v>
+        <v>5.536777777777778</v>
       </c>
       <c r="G43" s="4">
-        <v>5.3166093888426857E-2</v>
+        <v>8.2452585764275721E-2</v>
       </c>
       <c r="H43" s="4">
-        <v>0.52377166481157578</v>
+        <v>0.49628886659979932</v>
       </c>
       <c r="I43" s="6">
-        <v>-0.17759032675214681</v>
+        <v>-3.2183682971753225E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1860,28 +1863,28 @@
         <v>50</v>
       </c>
       <c r="B44" s="3">
-        <v>1354.25</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.12134636085120466</v>
+        <v>843.98</v>
+      </c>
+      <c r="C44" s="6">
+        <v>-0.3330435744653949</v>
       </c>
       <c r="D44" s="5">
-        <v>247</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0.19902912621359214</v>
+        <v>165</v>
+      </c>
+      <c r="E44" s="6">
+        <v>-0.25339366515837103</v>
       </c>
       <c r="F44" s="3">
-        <v>5.4827935222672064</v>
+        <v>5.115030303030303</v>
       </c>
       <c r="G44" s="6">
-        <v>-6.4788055322477112E-2</v>
+        <v>-0.10668260579910471</v>
       </c>
       <c r="H44" s="4">
-        <v>0.17793594306049834</v>
+        <v>9.033245844269476E-2</v>
       </c>
       <c r="I44" s="4">
-        <v>9.9450250111435809E-2</v>
+        <v>5.7576557423466568E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1889,28 +1892,28 @@
         <v>51</v>
       </c>
       <c r="B45" s="3">
-        <v>1207.7</v>
+        <v>1265.42</v>
       </c>
       <c r="C45" s="6">
-        <v>-0.35012941448688906</v>
+        <v>-0.34558298770207796</v>
       </c>
       <c r="D45" s="5">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E45" s="6">
-        <v>-0.37764350453172196</v>
+        <v>-0.31152647975077885</v>
       </c>
       <c r="F45" s="3">
-        <v>5.8626213592233016</v>
-      </c>
-      <c r="G45" s="4">
-        <v>4.420953303320263E-2</v>
+        <v>5.7258823529411771</v>
+      </c>
+      <c r="G45" s="6">
+        <v>-4.9466692544647195E-2</v>
       </c>
       <c r="H45" s="6">
-        <v>-0.27360544217687077</v>
-      </c>
-      <c r="I45" s="6">
-        <v>-1.7819882164673673E-2</v>
+        <v>-0.27623872091182522</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.3225430154564011E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1918,28 +1921,28 @@
         <v>52</v>
       </c>
       <c r="B46" s="3">
-        <v>1858.3700000000001</v>
+        <v>1933.6600000000003</v>
       </c>
       <c r="C46" s="6">
-        <v>-0.23427759121531133</v>
+        <v>-0.22045555331586364</v>
       </c>
       <c r="D46" s="5">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E46" s="6">
-        <v>-0.25282167042889392</v>
+        <v>-0.20740740740740737</v>
       </c>
       <c r="F46" s="3">
-        <v>5.614410876132931</v>
-      </c>
-      <c r="G46" s="4">
-        <v>2.4818812965610615E-2</v>
+        <v>6.0238629283489109</v>
+      </c>
+      <c r="G46" s="6">
+        <v>-1.6462613996650277E-2</v>
       </c>
       <c r="H46" s="6">
-        <v>-0.18005354752342703</v>
-      </c>
-      <c r="I46" s="4">
-        <v>9.7632653061224595E-2</v>
+        <v>-0.17500326498628704</v>
+      </c>
+      <c r="I46" s="6">
+        <v>-3.5039350232546229E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1947,28 +1950,28 @@
         <v>53</v>
       </c>
       <c r="B47" s="3">
-        <v>2426.9500000000003</v>
+        <v>2480.5</v>
       </c>
       <c r="C47" s="6">
-        <v>-2.0996369503832102E-2</v>
+        <v>-5.6768791424409937E-2</v>
       </c>
       <c r="D47" s="5">
-        <v>443</v>
-      </c>
-      <c r="E47" s="4">
-        <v>4.5351473922903285E-3</v>
+        <v>405</v>
+      </c>
+      <c r="E47" s="6">
+        <v>-0.10596026490066224</v>
       </c>
       <c r="F47" s="3">
-        <v>5.4784424379232508</v>
-      </c>
-      <c r="G47" s="6">
-        <v>-2.5416250454153411E-2</v>
+        <v>6.1246913580246911</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5.5021574036400622E-2</v>
       </c>
       <c r="H47" s="6">
-        <v>-5.2158472977471559E-3</v>
-      </c>
-      <c r="I47" s="6">
-        <v>-2.5529555865184128E-2</v>
+        <v>-0.16544959128065392</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4.8834934746574854E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1976,28 +1979,28 @@
         <v>54</v>
       </c>
       <c r="B48" s="3">
-        <v>2479.0000000000005</v>
+        <v>2629.7899999999991</v>
       </c>
       <c r="C48" s="6">
-        <v>-1.9382911392405222E-2</v>
+        <v>-4.3222161180823553E-2</v>
       </c>
       <c r="D48" s="5">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="E48" s="6">
-        <v>-3.9215686274509776E-2</v>
+        <v>-3.8216560509554132E-2</v>
       </c>
       <c r="F48" s="3">
-        <v>5.621315192743765</v>
-      </c>
-      <c r="G48" s="4">
-        <v>2.0642275897700735E-2</v>
-      </c>
-      <c r="H48" s="4">
-        <v>2.80661722760982E-2</v>
+        <v>5.8052759381898431</v>
+      </c>
+      <c r="G48" s="6">
+        <v>-5.2044987111873331E-3</v>
+      </c>
+      <c r="H48" s="6">
+        <v>-5.9167350287120613E-2</v>
       </c>
       <c r="I48" s="6">
-        <v>-9.2146635593533865E-2</v>
+        <v>-8.286643902551194E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2005,28 +2008,28 @@
         <v>55</v>
       </c>
       <c r="B49" s="3">
-        <v>2528.0000000000009</v>
-      </c>
-      <c r="C49" s="6">
-        <v>-0.10755891946848894</v>
+        <v>2748.5899999999988</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8.6768624908071246E-2</v>
       </c>
       <c r="D49" s="5">
-        <v>459</v>
-      </c>
-      <c r="E49" s="6">
-        <v>-5.555555555555558E-2</v>
+        <v>471</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7.5342465753424737E-2</v>
       </c>
       <c r="F49" s="3">
-        <v>5.5076252723311567</v>
-      </c>
-      <c r="G49" s="6">
-        <v>-5.506238531957653E-2</v>
-      </c>
-      <c r="H49" s="6">
-        <v>-0.17676340753263831</v>
+        <v>5.8356475583864089</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1.0625600232983423E-2</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1.7635396013774285E-2</v>
       </c>
       <c r="I49" s="4">
-        <v>6.5096875383327424E-2</v>
+        <v>0.17622647724165355</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2034,28 +2037,28 @@
         <v>56</v>
       </c>
       <c r="B50" s="3">
-        <v>2832.6800000000003</v>
+        <v>2529.1399999999994</v>
       </c>
       <c r="C50" s="4">
-        <v>0.81003073502067158</v>
+        <v>0.86755768875761385</v>
       </c>
       <c r="D50" s="5">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="E50" s="4">
-        <v>0.65306122448979598</v>
+        <v>0.77327935222672073</v>
       </c>
       <c r="F50" s="3">
-        <v>5.8285596707818934</v>
+        <v>5.7742922374429213</v>
       </c>
       <c r="G50" s="4">
-        <v>9.4956864395220997E-2</v>
+        <v>5.3166093888426191E-2</v>
       </c>
       <c r="H50" s="4">
-        <v>0.28618023677216708</v>
+        <v>0.52377166481157578</v>
       </c>
       <c r="I50" s="6">
-        <v>-3.5179823940286292E-2</v>
+        <v>-0.17759032675214681</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2063,28 +2066,28 @@
         <v>57</v>
       </c>
       <c r="B51" s="3">
-        <v>1564.9899999999998</v>
+        <v>1354.2500000000005</v>
       </c>
       <c r="C51" s="4">
-        <v>0.15400327399825997</v>
+        <v>0.12134636085120508</v>
       </c>
       <c r="D51" s="5">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="E51" s="4">
-        <v>0.25641025641025639</v>
+        <v>0.19902912621359214</v>
       </c>
       <c r="F51" s="3">
-        <v>5.3230952380952372</v>
+        <v>5.4827935222672082</v>
       </c>
       <c r="G51" s="6">
-        <v>-8.1507598246282953E-2</v>
+        <v>-6.4788055322476779E-2</v>
       </c>
       <c r="H51" s="4">
-        <v>0.42160398420058387</v>
+        <v>0.17793594306049834</v>
       </c>
       <c r="I51" s="4">
-        <v>9.485597269092573E-2</v>
+        <v>9.9450250111435809E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2092,28 +2095,28 @@
         <v>58</v>
       </c>
       <c r="B52" s="3">
-        <v>1356.1399999999996</v>
+        <v>1207.7</v>
       </c>
       <c r="C52" s="6">
-        <v>-0.42612551996716241</v>
+        <v>-0.35012941448688883</v>
       </c>
       <c r="D52" s="5">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="E52" s="6">
-        <v>-0.47058823529411759</v>
+        <v>-0.37764350453172196</v>
       </c>
       <c r="F52" s="3">
-        <v>5.7954700854700842</v>
+        <v>5.8626213592233016</v>
       </c>
       <c r="G52" s="4">
-        <v>8.3985128950915477E-2</v>
+        <v>4.4209533033202852E-2</v>
       </c>
       <c r="H52" s="6">
-        <v>-0.2319968346082828</v>
+        <v>-0.27360544217687077</v>
       </c>
       <c r="I52" s="6">
-        <v>-0.15467189597488928</v>
+        <v>-1.7819882164673673E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2121,28 +2124,28 @@
         <v>59</v>
       </c>
       <c r="B53" s="3">
-        <v>2363.13</v>
+        <v>1858.3699999999994</v>
       </c>
       <c r="C53" s="6">
-        <v>-0.2899995493262425</v>
+        <v>-0.23427759121531147</v>
       </c>
       <c r="D53" s="5">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="E53" s="6">
-        <v>-0.24701873935264052</v>
+        <v>-0.25282167042889392</v>
       </c>
       <c r="F53" s="3">
-        <v>5.3464479638009053</v>
-      </c>
-      <c r="G53" s="6">
-        <v>-5.7080849444579924E-2</v>
+        <v>5.6144108761329292</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2.4818812965610393E-2</v>
       </c>
       <c r="H53" s="6">
-        <v>-0.27396342047304412</v>
+        <v>-0.18005354752342703</v>
       </c>
       <c r="I53" s="4">
-        <v>6.9398961597107345E-2</v>
+        <v>9.7632653061224595E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2150,28 +2153,28 @@
         <v>60</v>
       </c>
       <c r="B54" s="3">
-        <v>3328.349999999999</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.11939771435490032</v>
+        <v>2426.9499999999994</v>
+      </c>
+      <c r="C54" s="6">
+        <v>-2.0996369503833323E-2</v>
       </c>
       <c r="D54" s="5">
-        <v>587</v>
+        <v>443</v>
       </c>
       <c r="E54" s="4">
-        <v>0.16007905138339917</v>
+        <v>4.5351473922903285E-3</v>
       </c>
       <c r="F54" s="3">
-        <v>5.6701022146507647</v>
+        <v>5.478442437923249</v>
       </c>
       <c r="G54" s="6">
-        <v>-3.5067728341431681E-2</v>
-      </c>
-      <c r="H54" s="4">
-        <v>3.1101895734597207E-2</v>
+        <v>-2.5416250454154632E-2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>-5.2158472977471559E-3</v>
       </c>
       <c r="I54" s="6">
-        <v>-3.4090208616584849E-2</v>
+        <v>-2.5529555865184128E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2179,28 +2182,28 @@
         <v>61</v>
       </c>
       <c r="B55" s="3">
-        <v>2973.3399999999997</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0.12235815475673695</v>
+        <v>2479.0000000000023</v>
+      </c>
+      <c r="C55" s="6">
+        <v>-1.9382911392404112E-2</v>
       </c>
       <c r="D55" s="5">
-        <v>506</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0.12195121951219523</v>
+        <v>441</v>
+      </c>
+      <c r="E55" s="6">
+        <v>-3.9215686274509776E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>5.8761660079051374</v>
+        <v>5.6213151927437695</v>
       </c>
       <c r="G55" s="4">
-        <v>3.6270315274378184E-4</v>
+        <v>2.0642275897701845E-2</v>
       </c>
       <c r="H55" s="4">
-        <v>0.17412473916067703</v>
+        <v>2.80661722760982E-2</v>
       </c>
       <c r="I55" s="6">
-        <v>-8.33574258209515E-2</v>
+        <v>-9.2146635593533865E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2208,28 +2211,28 @@
         <v>62</v>
       </c>
       <c r="B56" s="3">
-        <v>2649.1899999999996</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.95150680289647871</v>
+        <v>2528</v>
+      </c>
+      <c r="C56" s="6">
+        <v>-0.10755891946848928</v>
       </c>
       <c r="D56" s="5">
-        <v>451</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0.85596707818930051</v>
+        <v>459</v>
+      </c>
+      <c r="E56" s="6">
+        <v>-5.555555555555558E-2</v>
       </c>
       <c r="F56" s="3">
-        <v>5.8740354767184026</v>
-      </c>
-      <c r="G56" s="4">
-        <v>5.1477057879920851E-2</v>
+        <v>5.507625272331155</v>
+      </c>
+      <c r="G56" s="6">
+        <v>-5.5062385319576856E-2</v>
       </c>
       <c r="H56" s="6">
-        <v>-2.8275318238143554E-2</v>
+        <v>-0.17676340753263831</v>
       </c>
       <c r="I56" s="4">
-        <v>0.10363555302270244</v>
+        <v>6.5096875383327424E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2237,28 +2240,28 @@
         <v>63</v>
       </c>
       <c r="B57" s="3">
-        <v>1357.5100000000004</v>
-      </c>
-      <c r="C57" s="6">
-        <v>-0.19620219436664718</v>
+        <v>2832.6800000000003</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.81003073502067169</v>
       </c>
       <c r="D57" s="5">
-        <v>243</v>
-      </c>
-      <c r="E57" s="6">
-        <v>-0.20327868852459019</v>
+        <v>486</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.65306122448979598</v>
       </c>
       <c r="F57" s="3">
-        <v>5.5864609053497958</v>
+        <v>5.8285596707818934</v>
       </c>
       <c r="G57" s="4">
-        <v>8.8820194163481414E-3</v>
+        <v>9.4956864395221205E-2</v>
       </c>
       <c r="H57" s="4">
-        <v>3.1010452961672375E-2</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.24662682283500126</v>
+        <v>0.28618023677216708</v>
+      </c>
+      <c r="I57" s="6">
+        <v>-3.5179823940286292E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2266,28 +2269,28 @@
         <v>64</v>
       </c>
       <c r="B58" s="3">
-        <v>1688.87</v>
+        <v>1564.9899999999996</v>
       </c>
       <c r="C58" s="4">
-        <v>8.9614637702664979E-2</v>
+        <v>0.1540032739982593</v>
       </c>
       <c r="D58" s="5">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E58" s="4">
-        <v>0.15530303030303028</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="F58" s="3">
-        <v>5.5372786885245899</v>
+        <v>5.3230952380952363</v>
       </c>
       <c r="G58" s="6">
-        <v>-5.6858149660644057E-2</v>
+        <v>-8.1507598246283397E-2</v>
       </c>
       <c r="H58" s="4">
-        <v>0.41798418972332008</v>
-      </c>
-      <c r="I58" s="6">
-        <v>-0.10366252626539352</v>
+        <v>0.42160398420058387</v>
+      </c>
+      <c r="I58" s="4">
+        <v>9.485597269092573E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2295,28 +2298,28 @@
         <v>65</v>
       </c>
       <c r="B59" s="3">
-        <v>1549.9700000000003</v>
+        <v>1356.14</v>
       </c>
       <c r="C59" s="6">
-        <v>-0.25369907601342367</v>
+        <v>-0.4261255199671623</v>
       </c>
       <c r="D59" s="5">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="E59" s="6">
-        <v>-0.32133676092544983</v>
+        <v>-0.47058823529411759</v>
       </c>
       <c r="F59" s="3">
-        <v>5.8710984848484857</v>
+        <v>5.795470085470086</v>
       </c>
       <c r="G59" s="4">
-        <v>9.9663103904462869E-2</v>
+        <v>8.3985128950915713E-2</v>
       </c>
       <c r="H59" s="6">
-        <v>-0.1214006656055564</v>
+        <v>-0.2319968346082828</v>
       </c>
       <c r="I59" s="6">
-        <v>-0.12806458944902877</v>
+        <v>-0.15467189597488928</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2324,28 +2327,28 @@
         <v>66</v>
       </c>
       <c r="B60" s="3">
-        <v>2076.8699999999994</v>
+        <v>2363.1300000000006</v>
       </c>
       <c r="C60" s="6">
-        <v>-0.21725611686490898</v>
+        <v>-0.2899995493262425</v>
       </c>
       <c r="D60" s="5">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="E60" s="6">
-        <v>-0.1506550218340611</v>
+        <v>-0.24701873935264052</v>
       </c>
       <c r="F60" s="3">
-        <v>5.3389974293059108</v>
+        <v>5.3464479638009061</v>
       </c>
       <c r="G60" s="6">
-        <v>-7.8414656874365996E-2</v>
+        <v>-5.7080849444580029E-2</v>
       </c>
       <c r="H60" s="6">
-        <v>-0.20535816948372998</v>
+        <v>-0.27396342047304412</v>
       </c>
       <c r="I60" s="4">
-        <v>3.2092514383804671E-2</v>
+        <v>6.9398961597107345E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2353,28 +2356,57 @@
         <v>67</v>
       </c>
       <c r="B61" s="3">
-        <v>2653.3199999999997</v>
-      </c>
-      <c r="C61" s="6">
-        <v>-6.0086293013666525E-2</v>
+        <v>3328.35</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.11939771435490056</v>
       </c>
       <c r="D61" s="5">
-        <v>458</v>
-      </c>
-      <c r="E61" s="6">
-        <v>-0.13257575757575757</v>
+        <v>587</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.16007905138339917</v>
       </c>
       <c r="F61" s="3">
-        <v>5.7932751091703052</v>
-      </c>
-      <c r="G61" s="4">
-        <v>8.3568640368524072E-2</v>
-      </c>
-      <c r="H61" s="6">
-        <v>-7.2814498933901906E-2</v>
+        <v>5.6701022146507665</v>
+      </c>
+      <c r="G61" s="6">
+        <v>-3.5067728341431459E-2</v>
+      </c>
+      <c r="H61" s="4">
+        <v>3.1101895734597207E-2</v>
       </c>
       <c r="I61" s="6">
-        <v>-0.11466891923090505</v>
+        <v>-3.4090208616584849E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2973.3399999999997</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.1223581547567365</v>
+      </c>
+      <c r="D62" s="5">
+        <v>506</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.12195121951219523</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5.8761660079051374</v>
+      </c>
+      <c r="G62" s="4">
+        <v>3.6270315274333775E-4</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.17412473916067703</v>
+      </c>
+      <c r="I62" s="6">
+        <v>-8.33574258209515E-2</v>
       </c>
     </row>
   </sheetData>
